--- a/data/trans_camb/IP1010-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,76</t>
+          <t>-2,81; -0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,7</t>
+          <t>-2,78; 0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,91</t>
+          <t>-1,54; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,52</t>
+          <t>-1,8; -0,19</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>110,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>236,9%</t>
+          <t>-79,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>111,01%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>275,49%</t>
+          <t>-85,68%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,93; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 138,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,32</t>
+          <t>-0,46; 1,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,08</t>
+          <t>0,03; 2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,0</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,41</t>
+          <t>-0,24; 0,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; -0,19</t>
+          <t>0,01; 1,52</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>110,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-79,01%</t>
+          <t>236,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>111,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-85,68%</t>
+          <t>275,49%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,93; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 138,64</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,29; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1010-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,32</t>
+          <t>-2,27; -0,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,08</t>
+          <t>-2,1; -0,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,77</t>
+          <t>-0,72; 1,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,0</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,41</t>
+          <t>-0,94; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; -0,19</t>
+          <t>-1,39; -0,24</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-79,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>-34,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-85,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 138,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,17 +928,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,76</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,7</t>
+          <t>-0,55; 4,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,91</t>
+          <t>-1,58; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,52</t>
+          <t>-0,23; 2,08</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>110,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>236,9%</t>
+          <t>176,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>111,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>275,49%</t>
+          <t>162,63%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,93; —</t>
+          <t>-53,13; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,29; —</t>
+          <t>-48,97; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,25</t>
+          <t>-0,57; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,71</t>
+          <t>-2,23; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,11</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,24</t>
+          <t>-0,28; 1,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,32</t>
+          <t>-0,84; 0,29</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-45,06%</t>
+          <t>134,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-59,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,5%</t>
+          <t>131,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>-53,91%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-89,99; 102,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 261,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 111,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 167,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 0,26</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 0,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 0,63</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 0,13</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 0,3</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 0,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-45,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>61,82%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-59,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-22,5%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-89,67; 94,33</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-68,89; 278,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-76,52; 141,93</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-67,8; 180,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1010-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; -0,24</t>
+          <t>-2,15; -0,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,24</t>
+          <t>-2,17; -0,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,69</t>
+          <t>-0,66; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,62</t>
+          <t>-0,96; 0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; -0,24</t>
+          <t>-1,5; -0,25</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 271,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-3,14; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,12</t>
+          <t>-0,81; 4,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,0</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,08</t>
+          <t>-0,36; 2,1</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,13; —</t>
+          <t>-71,67; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,97; —</t>
+          <t>-64,47; —</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,7</t>
+          <t>-0,58; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,0</t>
+          <t>-2,05; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,64</t>
+          <t>-0,29; 1,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,29</t>
+          <t>-0,97; 0,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,26</t>
+          <t>-0,92; 0,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,78</t>
+          <t>-0,55; 0,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,63</t>
+          <t>-0,34; 0,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,13</t>
+          <t>-0,51; 0,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,3</t>
+          <t>-0,45; 0,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,38</t>
+          <t>-0,42; 0,35</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 94,33</t>
+          <t>-90,02; 99,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 278,2</t>
+          <t>-68,62; 241,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 141,93</t>
+          <t>-77,9; 169,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 180,63</t>
+          <t>-71,87; 208,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1010-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,78</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; -0,24</t>
+          <t>-0,71; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; -0,24</t>
+          <t>-1,49; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,89</t>
+          <t>-2,13; -0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>-2,11; -0,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,47</t>
+          <t>-0,89; 0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; -0,25</t>
+          <t>-1,39; -0,25</t>
         </is>
       </c>
     </row>
@@ -833,17 +833,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>81,39%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>81,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,16</t>
+          <t>-100,0; 266,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,97</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>1,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 4,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,0</t>
+          <t>-1,71; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,1</t>
+          <t>-0,41; 2,04</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>176,5%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,67; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,73; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,64</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,0</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 3,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>-1,92; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,5</t>
+          <t>-0,26; 1,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,27</t>
+          <t>-0,84; 0,15</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>134,25%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,29</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,03</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,25</t>
+          <t>-0,26; 0,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,81</t>
+          <t>-0,46; 0,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,53</t>
+          <t>-0,93; 0,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,13</t>
+          <t>-0,64; 0,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,31</t>
+          <t>-0,52; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,35</t>
+          <t>-0,41; 0,32</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>61,82%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-59,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-45,06%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>5,35%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>61,82%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-59,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,02; 99,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 241,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,99; 102,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,72; 261,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 169,99</t>
+          <t>-78,87; 111,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 208,37</t>
+          <t>-69,87; 167,94</t>
         </is>
       </c>
     </row>
